--- a/mytests/t1.xlsx
+++ b/mytests/t1.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Chart테스트1" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Chart테스트22" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Chart테스트221" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Chart테스트222" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -861,7 +862,6 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="13"/>
   <chart>
     <plotArea>
       <scatterChart>
@@ -926,6 +926,123 @@
           <yVal>
             <numRef>
               <f>Chart테스트221!$C$2:$C$7</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:r>
+                  <a:t>퍼센테이지</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>Chart테스트222!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>Chart테스트222!$A$2:$A$7</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>Chart테스트222!$B$2:$B$7</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>Chart테스트222!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>Chart테스트222!$A$2:$A$7</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>Chart테스트222!$C$2:$C$7</f>
             </numRef>
           </yVal>
         </ser>
@@ -1058,6 +1175,33 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -3469,4 +3613,101 @@
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" t="n">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>